--- a/results/Orkut/res3_ns_max_deg.xlsx
+++ b/results/Orkut/res3_ns_max_deg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Prog\DPSubGraph\results-local\USENIX21_final\Orkut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Prog\github\organization\LDPGraphStatistics\results\Orkut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{BF7C2A1C-C600-4DF4-BDA7-A0BBE67397A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB31531-6CFB-4AF3-A4B2-BED33776726A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="593" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="470" windowWidth="14400" windowHeight="8260" tabRatio="593" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res (eps=1)" sheetId="22" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
                   <c:v>1.839766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4167589999999999</c:v>
+                  <c:v>2.41676</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.39214009999999999</c:v>
@@ -4398,7 +4398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D882-5AB0-4452-926D-A38492D5F1B8}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4531,10 +4533,10 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <v>2.4167589999999999</v>
+        <v>2.41676</v>
       </c>
       <c r="K4" s="1">
-        <v>5.309275E+16</v>
+        <v>5.309281E+16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4831,7 +4833,7 @@
         <v>1.62385</v>
       </c>
       <c r="K16" s="1">
-        <v>6.1192390000000003E-3</v>
+        <v>6.1192449999999997E-3</v>
       </c>
     </row>
   </sheetData>
